--- a/dataFromOktem.xlsx
+++ b/dataFromOktem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\PycharmProjects\SmartManufacturingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B54FFC-DAF8-445B-B013-D5F3AC824B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56B7CB-6C6D-49D9-99CE-60C1A7E20FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
